--- a/hMailImport/import.xlsx
+++ b/hMailImport/import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comp\Documents\Visual Studio 2017\Projects\hMailImport\hMailImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comp\Documents\Visual Studio 2017\Projects\hMailDistributionList\hMailImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,118 +24,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>erdauletov_b@osc.kz</t>
-  </si>
-  <si>
-    <t>K048d385</t>
-  </si>
-  <si>
-    <t>Поселок.Сайын.квартал №4 участок 147</t>
-  </si>
-  <si>
-    <t>ЦКРС №2</t>
-  </si>
-  <si>
-    <t>Бурильщик КРС</t>
-  </si>
-  <si>
-    <t>Ердаулетов</t>
-  </si>
-  <si>
-    <t>Бакыт</t>
-  </si>
-  <si>
-    <t>Ердаулетович</t>
-  </si>
-  <si>
-    <t>erdauletov_b</t>
-  </si>
-  <si>
-    <t>ТОО Oil Services Company</t>
-  </si>
-  <si>
-    <t>ПУКС</t>
-  </si>
-  <si>
-    <t>kusherbaev_d</t>
-  </si>
-  <si>
-    <t>U772s483</t>
   </si>
   <si>
     <t>kusherbaev_d@osc.kz</t>
   </si>
   <si>
-    <t>Атырауская.обл.село.Индир.улица.Коктем.дом.2/45</t>
-  </si>
-  <si>
-    <t>Машинист-водитель</t>
-  </si>
-  <si>
-    <t>Кушербаев</t>
-  </si>
-  <si>
-    <t>Даулет</t>
-  </si>
-  <si>
-    <t>Куанышевич</t>
-  </si>
-  <si>
-    <t>orazgaliev_n</t>
-  </si>
-  <si>
-    <t>R241a516</t>
-  </si>
-  <si>
     <t>orazgaliev_n@osc.kz</t>
   </si>
   <si>
-    <t>г.Актау, 26-39-5</t>
-  </si>
-  <si>
-    <t>Пом.бурильщика КРС</t>
-  </si>
-  <si>
-    <t>Оразгалиев</t>
-  </si>
-  <si>
-    <t>Нуралы</t>
-  </si>
-  <si>
-    <t>Нурдаулетович</t>
-  </si>
-  <si>
-    <t>balykbaev_t</t>
-  </si>
-  <si>
-    <t>L795l612</t>
-  </si>
-  <si>
     <t>balykbaev_t@osc.kz</t>
-  </si>
-  <si>
-    <t>поселок.Шетпе Ашыбулак № 21</t>
-  </si>
-  <si>
-    <t>Балыкбаев</t>
-  </si>
-  <si>
-    <t>Талгат</t>
-  </si>
-  <si>
-    <t>Бекбосынович</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -186,16 +105,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,189 +399,107 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" customWidth="1"/>
-    <col min="4" max="4" width="50.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.26953125" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" customWidth="1"/>
-    <col min="13" max="13" width="28.54296875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="28.5703125" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3">
-        <v>7013435498</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3">
-        <v>7776645788</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3">
-        <v>7013688992</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="3">
-        <v>7021433550</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>